--- a/testData/126邮箱发送邮件.xlsx
+++ b/testData/126邮箱发送邮件.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -16,373 +16,364 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="117">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>步骤sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录126邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用有效的账号登录126邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:01</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>发送带附件的邮件</t>
+  </si>
+  <si>
+    <t>登录126邮箱后，发送一封带附件的邮件</t>
   </si>
   <si>
     <t>发送邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录126邮箱后，发送一封带附件的邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送带附件的邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:17</t>
   </si>
   <si>
     <t>测试步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作元素的定位方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作元素的定位表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试执行时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打开浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:42</t>
   </si>
   <si>
     <t>访问被测试网址：http://mail.126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_url</t>
+  </si>
+  <si>
+    <t>http://126.com</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:43</t>
   </si>
   <si>
     <t>最大化窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximize_browser</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:44</t>
   </si>
   <si>
     <t>等待126邮箱登录主页加载完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:50</t>
   </si>
   <si>
     <t>断言当前活动页面是否包含“126网易免费邮--你的专业电子邮局”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maximize_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assert_string_in_pagesource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>126网易免费邮--你的专业电子邮局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示等待frame框出现，然后进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>waitFrameToBeAvailableAndSwitchToIt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//div[@id='loginDiv']/iframe</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>输入登录用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>//input[@name='email']</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:51</t>
+  </si>
+  <si>
+    <t>输入登录密码</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>单击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x-URS-iframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入登录用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入登录密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击登录按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dologin</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:52</t>
   </si>
   <si>
     <t>等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:54</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>再次选择登录</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'登录')]</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:55</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:08:58</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>切回默认会话窗体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_default_content</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:00</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>断言登录成功后是否包含“网易邮箱6.0版”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_to_default_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assert_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dologin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//input[@name='email']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网易邮箱6.0版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>判断“写信”按钮是否在页面上可见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitVisibilityOfElementLocated</t>
+  </si>
+  <si>
+    <t>//span[text()="写 信"]</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:02</t>
   </si>
   <si>
     <t>单击“写信”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>输入收件人地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[@class="nui-editableAddr-ipt"]</t>
+  </si>
+  <si>
+    <t>liuzhiguo@chalco-steering.com</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:04</t>
   </si>
   <si>
     <t>输入邮件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//input[contains(@id,"subjectInput")]</t>
+  </si>
+  <si>
+    <t>带附件的邮件</t>
   </si>
   <si>
     <t>单击“上传附件”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[contains(@title,'600首MP3')]</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:05</t>
   </si>
   <si>
     <t>输入附件所有绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste_string</t>
+  </si>
+  <si>
+    <t>e:\\测试Excel文件.xlsx</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:07</t>
   </si>
   <si>
     <t>模拟键盘回车键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press_enter_key</t>
   </si>
   <si>
     <t>显示等待附件上传完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//span[text()="上传完成"]</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:08</t>
   </si>
   <si>
     <t>如果邮件正文的frame框是可见，则切换进入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//iframe[@tabindex=1]</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:09</t>
   </si>
   <si>
     <t>输入邮件正文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body</t>
+  </si>
+  <si>
+    <t>新邮件</t>
   </si>
   <si>
     <t>退出邮件正文的frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:10</t>
   </si>
   <si>
     <t>单击邮件发送按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//header//span[text()='发送']</t>
   </si>
   <si>
     <t>等待邮件发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:13</t>
   </si>
   <si>
     <t>断言是否发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+  </si>
+  <si>
+    <t>2019-04-01 17:09:14</t>
   </si>
   <si>
     <t>关闭浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waitVisibilityOfElementLocated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paste_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>press_enter_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>close_browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//header//span[text()='发送']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//iframe[@tabindex=1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[text()="上传成功"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//span[text()="写信"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[contains(@id,'_mail_emailinput)]/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@aria-lable='邮件主题输入框，请输入邮件主题']/input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[contains(@title,'600首MP3')]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liuzhiguo@chalco-steering.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带附件的邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\\a.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +388,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -442,8 +439,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,10 +455,26 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,21 +771,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -795,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -811,10 +824,16 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -822,231 +841,264 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
+    <row r="1" spans="1:10" ht="40.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="27">
+    <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="40.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="27">
+    <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="40.5">
+    <row r="6" spans="1:10" ht="40.5" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="27">
+    <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="27">
+    <row r="8" spans="1:10" ht="27" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="27">
+    <row r="9" spans="1:10" ht="27" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>54</v>
@@ -1054,95 +1106,165 @@
       <c r="F9" s="3">
         <v>123456789</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="40.5" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="40.5" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
-      <c r="A12" s="2">
-        <v>11</v>
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
-      <c r="A13" s="2">
-        <v>12</v>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -1151,373 +1273,434 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
+    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5">
+    <row r="1" spans="1:10" ht="40.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="31.5" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="27">
+    <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="40.5">
+    <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="27">
+    <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="45" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="27">
+    <row r="9" spans="1:10" ht="27" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="40.5">
+    <row r="10" spans="1:10" ht="40.5" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="40.5" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
+    <row r="12" spans="1:10" ht="27" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="27">
+    <row r="13" spans="1:10" ht="27" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="40.5" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="27">
+    <row r="15" spans="1:10" ht="27" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="40.5" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>